--- a/data/rename_columns.xlsx
+++ b/data/rename_columns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderson/GLab Dropbox/Anderson Brito/ITpS/projetos_itps/sgtf_omicron/analyses/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderson/google_drive/ITpS/projetos_itps/resp_pathogens/analyses/20220405_relatorio4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FF9899-F635-894D-B90F-C3EEE4A536C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892AF676-D911-064C-B0B0-963731491D8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18400" yWindow="6100" windowWidth="26040" windowHeight="14940" xr2:uid="{85AFBA56-08BE-0441-AF99-E499752AA002}"/>
+    <workbookView xWindow="47020" yWindow="460" windowWidth="12900" windowHeight="17540" xr2:uid="{85AFBA56-08BE-0441-AF99-E499752AA002}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
   <si>
     <t>lab_id</t>
   </si>
@@ -45,109 +45,148 @@
     <t>sex</t>
   </si>
   <si>
-    <t>Ct_N</t>
-  </si>
-  <si>
-    <t>Ct_ORF1ab</t>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>DataHoraLiberacaoClinica</t>
+  </si>
+  <si>
+    <t>date_testing</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>NumeroPedido</t>
+  </si>
+  <si>
+    <t>test_id</t>
+  </si>
+  <si>
+    <t>FLUARV</t>
+  </si>
+  <si>
+    <t>NGRV</t>
+  </si>
+  <si>
+    <t>RSVRV</t>
+  </si>
+  <si>
+    <t>SGRV</t>
+  </si>
+  <si>
+    <t>FLUBRV</t>
+  </si>
+  <si>
+    <t>RDRPGRV</t>
+  </si>
+  <si>
+    <t>DB Molecular</t>
+  </si>
+  <si>
+    <t>Ct_FluA</t>
+  </si>
+  <si>
+    <t>Ct_geneN</t>
+  </si>
+  <si>
+    <t>Ct_VSR</t>
+  </si>
+  <si>
+    <t>Ct_geneS</t>
+  </si>
+  <si>
+    <t>Ct_FluB</t>
+  </si>
+  <si>
+    <t>Ct_RDRP</t>
+  </si>
+  <si>
+    <t>HLAGyn</t>
+  </si>
+  <si>
+    <t>Dt. Nascimento</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Data Coleta</t>
+  </si>
+  <si>
+    <t>DASA_2</t>
+  </si>
+  <si>
+    <t>SC2_test_result</t>
+  </si>
+  <si>
+    <t>requisicao</t>
+  </si>
+  <si>
+    <t>uf_norm</t>
+  </si>
+  <si>
+    <t>cidade_norm</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>idade</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>resultado</t>
+  </si>
+  <si>
+    <t>Gene N</t>
+  </si>
+  <si>
+    <t>Gene S</t>
+  </si>
+  <si>
+    <t>NGENE</t>
+  </si>
+  <si>
+    <t>SGENE</t>
+  </si>
+  <si>
+    <t>DB Molecular_2</t>
   </si>
   <si>
     <t>Resultado</t>
   </si>
   <si>
-    <t>test_result</t>
-  </si>
-  <si>
-    <t>Cidade</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>UF</t>
-  </si>
-  <si>
-    <t>DataHoraLiberacaoClinica</t>
-  </si>
-  <si>
-    <t>date_testing</t>
-  </si>
-  <si>
-    <t>Diagnósticos do Brasil</t>
-  </si>
-  <si>
-    <t>Ct_S</t>
-  </si>
-  <si>
-    <t>birthdate</t>
-  </si>
-  <si>
-    <t>NGENE</t>
-  </si>
-  <si>
-    <t>ORF1AB</t>
-  </si>
-  <si>
-    <t>SGENE</t>
-  </si>
-  <si>
-    <t>NumeroPedido</t>
-  </si>
-  <si>
-    <t>test_id</t>
-  </si>
-  <si>
     <t>DASA</t>
   </si>
   <si>
-    <t>requisicao</t>
-  </si>
-  <si>
-    <t>idade</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>resultado</t>
-  </si>
-  <si>
-    <t>cep_municipio</t>
-  </si>
-  <si>
-    <t>cep_uf</t>
-  </si>
-  <si>
-    <t>data_do_resultado</t>
-  </si>
-  <si>
-    <t>Gene N</t>
-  </si>
-  <si>
-    <t>Gene ORF</t>
-  </si>
-  <si>
-    <t>Gene S</t>
-  </si>
-  <si>
-    <t>Diagnósticos do Brasil_2</t>
-  </si>
-  <si>
-    <t>Pedido</t>
-  </si>
-  <si>
-    <t>Data de coleta</t>
-  </si>
-  <si>
-    <t>Estado Origem</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Município </t>
+    <t>data_exame</t>
+  </si>
+  <si>
+    <t>uf</t>
+  </si>
+  <si>
+    <t>codigorequisicao</t>
+  </si>
+  <si>
+    <t>state_code</t>
+  </si>
+  <si>
+    <t>EGENERV</t>
+  </si>
+  <si>
+    <t>Ct_geneE</t>
   </si>
 </sst>
 </file>
@@ -499,16 +538,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1713BFE-4562-D640-92D5-BBA09EA5AB16}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -524,29 +564,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -557,266 +597,431 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/rename_columns.xlsx
+++ b/data/rename_columns.xlsx
@@ -1,42 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderson/google_drive/ITpS/projetos_itps/resp_pathogens/analyses/20220405_relatorio4/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anderson/Library/CloudStorage/GoogleDrive-anderson.brito@itps.org.br/Outros computadores/My Mac mini/google_drive/ITpS/projetos_itps/resp_pathogens/analyses/20220628_relatorio11/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892AF676-D911-064C-B0B0-963731491D8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED05A0A8-0F11-1049-8150-AF14D999F110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47020" yWindow="460" windowWidth="12900" windowHeight="17540" xr2:uid="{85AFBA56-08BE-0441-AF99-E499752AA002}"/>
+    <workbookView xWindow="-38320" yWindow="9420" windowWidth="20400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
   <si>
     <t>lab_id</t>
   </si>
   <si>
+    <t>column_name</t>
+  </si>
+  <si>
     <t>new_name</t>
   </si>
   <si>
+    <t>DB Molecular</t>
+  </si>
+  <si>
+    <t>NumeroPedido</t>
+  </si>
+  <si>
+    <t>test_id</t>
+  </si>
+  <si>
     <t>DataNascimento</t>
   </si>
   <si>
-    <t>column_name</t>
+    <t>birthdate</t>
   </si>
   <si>
     <t>Sexo</t>
@@ -54,60 +61,57 @@
     <t>UF</t>
   </si>
   <si>
+    <t>state_code</t>
+  </si>
+  <si>
     <t>DataHoraLiberacaoClinica</t>
   </si>
   <si>
     <t>date_testing</t>
   </si>
   <si>
-    <t>birthdate</t>
-  </si>
-  <si>
-    <t>NumeroPedido</t>
-  </si>
-  <si>
-    <t>test_id</t>
-  </si>
-  <si>
     <t>FLUARV</t>
   </si>
   <si>
+    <t>Ct_FluA</t>
+  </si>
+  <si>
     <t>NGRV</t>
   </si>
   <si>
+    <t>Ct_geneN</t>
+  </si>
+  <si>
     <t>RSVRV</t>
   </si>
   <si>
+    <t>Ct_VSR</t>
+  </si>
+  <si>
     <t>SGRV</t>
   </si>
   <si>
+    <t>Ct_geneS</t>
+  </si>
+  <si>
     <t>FLUBRV</t>
   </si>
   <si>
+    <t>Ct_FluB</t>
+  </si>
+  <si>
     <t>RDRPGRV</t>
   </si>
   <si>
-    <t>DB Molecular</t>
-  </si>
-  <si>
-    <t>Ct_FluA</t>
-  </si>
-  <si>
-    <t>Ct_geneN</t>
-  </si>
-  <si>
-    <t>Ct_VSR</t>
-  </si>
-  <si>
-    <t>Ct_geneS</t>
-  </si>
-  <si>
-    <t>Ct_FluB</t>
-  </si>
-  <si>
     <t>Ct_RDRP</t>
   </si>
   <si>
+    <t>EGENERV</t>
+  </si>
+  <si>
+    <t>Ct_geneE</t>
+  </si>
+  <si>
     <t>HLAGyn</t>
   </si>
   <si>
@@ -120,73 +124,70 @@
     <t>Data Coleta</t>
   </si>
   <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>DASA</t>
+  </si>
+  <si>
+    <t>data_exame</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>idade</t>
+  </si>
+  <si>
+    <t>uf</t>
+  </si>
+  <si>
+    <t>codigorequisicao</t>
+  </si>
+  <si>
     <t>DASA_2</t>
   </si>
   <si>
+    <t>requisicao</t>
+  </si>
+  <si>
+    <t>uf_norm</t>
+  </si>
+  <si>
+    <t>cidade_norm</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>resultado</t>
+  </si>
+  <si>
     <t>SC2_test_result</t>
   </si>
   <si>
-    <t>requisicao</t>
-  </si>
-  <si>
-    <t>uf_norm</t>
-  </si>
-  <si>
-    <t>cidade_norm</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>idade</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>resultado</t>
-  </si>
-  <si>
     <t>Gene N</t>
   </si>
   <si>
     <t>Gene S</t>
   </si>
   <si>
+    <t>DB Molecular_2</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
     <t>NGENE</t>
   </si>
   <si>
     <t>SGENE</t>
   </si>
   <si>
-    <t>DB Molecular_2</t>
-  </si>
-  <si>
-    <t>Resultado</t>
-  </si>
-  <si>
-    <t>DASA</t>
-  </si>
-  <si>
-    <t>data_exame</t>
-  </si>
-  <si>
-    <t>uf</t>
-  </si>
-  <si>
-    <t>codigorequisicao</t>
-  </si>
-  <si>
-    <t>state_code</t>
-  </si>
-  <si>
-    <t>EGENERV</t>
-  </si>
-  <si>
-    <t>Ct_geneE</t>
+    <t>codigo_externo_do_paciente</t>
   </si>
 </sst>
 </file>
@@ -198,7 +199,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -284,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -317,26 +318,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -369,23 +353,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,27 +495,22 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1713BFE-4562-D640-92D5-BBA09EA5AB16}">
-  <dimension ref="A1:C43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -556,128 +518,128 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -685,142 +647,142 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -828,139 +790,139 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
@@ -971,7 +933,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -982,50 +944,72 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/data/rename_columns.xlsx
+++ b/data/rename_columns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anderson/Library/CloudStorage/GoogleDrive-anderson.brito@itps.org.br/Outros computadores/My Mac mini/google_drive/ITpS/projetos_itps/resp_pathogens/analyses/20220628_relatorio11/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anderson/Library/CloudStorage/GoogleDrive-anderson.brito@itps.org.br/Outros computadores/My Mac mini/google_drive/ITpS/projetos_itps/resp_pathogens/analyses/itps_respat_test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED05A0A8-0F11-1049-8150-AF14D999F110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A24736A-6217-944E-B000-55065C967DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38320" yWindow="9420" windowWidth="20400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3620" yWindow="7040" windowWidth="18580" windowHeight="21760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="58">
   <si>
     <t>lab_id</t>
   </si>
@@ -148,9 +148,6 @@
     <t>codigorequisicao</t>
   </si>
   <si>
-    <t>DASA_2</t>
-  </si>
-  <si>
     <t>requisicao</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>Gene S</t>
   </si>
   <si>
-    <t>DB Molecular_2</t>
-  </si>
-  <si>
     <t>Resultado</t>
   </si>
   <si>
@@ -188,18 +182,44 @@
   </si>
   <si>
     <t>codigo_externo_do_paciente</t>
+  </si>
+  <si>
+    <t>CT_N</t>
+  </si>
+  <si>
+    <t>CT_ORF1AB</t>
+  </si>
+  <si>
+    <t>Ct_ORF1ab</t>
+  </si>
+  <si>
+    <t>Gene ORF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -223,8 +243,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -746,35 +768,35 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -782,10 +804,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -793,218 +815,262 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
         <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
         <v>42</v>
       </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
         <v>51</v>
       </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
         <v>23</v>
       </c>
     </row>
